--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Crlf1</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
         <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5315786666666668</v>
+        <v>0.3240676666666667</v>
       </c>
       <c r="H2">
-        <v>1.594736</v>
+        <v>0.972203</v>
       </c>
       <c r="I2">
-        <v>0.08932739063145037</v>
+        <v>0.04834775945726152</v>
       </c>
       <c r="J2">
-        <v>0.08932739063145037</v>
+        <v>0.04834775945726153</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +561,22 @@
         <v>0.472367</v>
       </c>
       <c r="O2">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P2">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q2">
-        <v>0.0837000733457778</v>
+        <v>0.05102629050011111</v>
       </c>
       <c r="R2">
-        <v>0.753300660112</v>
+        <v>0.459236614501</v>
       </c>
       <c r="S2">
-        <v>0.0020189077619986</v>
+        <v>0.001095571566708171</v>
       </c>
       <c r="T2">
-        <v>0.0020189077619986</v>
+        <v>0.001095571566708171</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5315786666666668</v>
+        <v>0.3240676666666667</v>
       </c>
       <c r="H3">
-        <v>1.594736</v>
+        <v>0.972203</v>
       </c>
       <c r="I3">
-        <v>0.08932739063145037</v>
+        <v>0.04834775945726152</v>
       </c>
       <c r="J3">
-        <v>0.08932739063145037</v>
+        <v>0.04834775945726153</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N3">
         <v>20.219269</v>
       </c>
       <c r="O3">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P3">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q3">
-        <v>3.582710685331556</v>
+        <v>2.184137108845222</v>
       </c>
       <c r="R3">
-        <v>32.244396167984</v>
+        <v>19.657233979607</v>
       </c>
       <c r="S3">
-        <v>0.08641763528366223</v>
+        <v>0.04689501217490628</v>
       </c>
       <c r="T3">
-        <v>0.08641763528366223</v>
+        <v>0.04689501217490629</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -664,46 +661,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5315786666666668</v>
+        <v>0.3240676666666667</v>
       </c>
       <c r="H4">
-        <v>1.594736</v>
+        <v>0.972203</v>
       </c>
       <c r="I4">
-        <v>0.08932739063145037</v>
+        <v>0.04834775945726152</v>
       </c>
       <c r="J4">
-        <v>0.08932739063145037</v>
+        <v>0.04834775945726153</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N4">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O4">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P4">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q4">
-        <v>0.03693284540977778</v>
+        <v>0.01663547355555556</v>
       </c>
       <c r="R4">
-        <v>0.332395608688</v>
+        <v>0.149719262</v>
       </c>
       <c r="S4">
-        <v>0.0008908475857895539</v>
+        <v>0.0003571757156470675</v>
       </c>
       <c r="T4">
-        <v>0.0008908475857895541</v>
+        <v>0.0003571757156470676</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.372434999999999</v>
+        <v>4.372435</v>
       </c>
       <c r="H5">
         <v>13.117305</v>
       </c>
       <c r="I5">
-        <v>0.734751474706081</v>
+        <v>0.6523249844605846</v>
       </c>
       <c r="J5">
-        <v>0.734751474706081</v>
+        <v>0.6523249844605848</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,22 +747,22 @@
         <v>0.472367</v>
       </c>
       <c r="O5">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P5">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q5">
-        <v>0.6884646678816665</v>
+        <v>0.6884646678816667</v>
       </c>
       <c r="R5">
-        <v>6.196182010934999</v>
+        <v>6.196182010935</v>
       </c>
       <c r="S5">
-        <v>0.01660627770427396</v>
+        <v>0.01478183711615673</v>
       </c>
       <c r="T5">
-        <v>0.01660627770427396</v>
+        <v>0.01478183711615674</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.372434999999999</v>
+        <v>4.372435</v>
       </c>
       <c r="H6">
         <v>13.117305</v>
       </c>
       <c r="I6">
-        <v>0.734751474706081</v>
+        <v>0.6523249844605846</v>
       </c>
       <c r="J6">
-        <v>0.734751474706081</v>
+        <v>0.6523249844605848</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N6">
         <v>20.219269</v>
       </c>
       <c r="O6">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P6">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q6">
-        <v>29.46914648333832</v>
+        <v>29.46914648333833</v>
       </c>
       <c r="R6">
-        <v>265.2223183500449</v>
+        <v>265.222318350045</v>
       </c>
       <c r="S6">
-        <v>0.7108176396560676</v>
+        <v>0.6327240068966656</v>
       </c>
       <c r="T6">
-        <v>0.7108176396560676</v>
+        <v>0.6327240068966659</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -850,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.372434999999999</v>
+        <v>4.372435</v>
       </c>
       <c r="H7">
         <v>13.117305</v>
       </c>
       <c r="I7">
-        <v>0.734751474706081</v>
+        <v>0.6523249844605846</v>
       </c>
       <c r="J7">
-        <v>0.734751474706081</v>
+        <v>0.6523249844605848</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N7">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O7">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P7">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q7">
-        <v>0.3037865814516666</v>
+        <v>0.2244516633333334</v>
       </c>
       <c r="R7">
-        <v>2.734079233064999</v>
+        <v>2.02006497</v>
       </c>
       <c r="S7">
-        <v>0.007327557345739509</v>
+        <v>0.004819140447762306</v>
       </c>
       <c r="T7">
-        <v>0.00732755734573951</v>
+        <v>0.004819140447762307</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -912,16 +909,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.06072066666666667</v>
+        <v>0.036647</v>
       </c>
       <c r="H8">
-        <v>0.182162</v>
+        <v>0.109941</v>
       </c>
       <c r="I8">
-        <v>0.01020360494289102</v>
+        <v>0.005467377721001466</v>
       </c>
       <c r="J8">
-        <v>0.01020360494289102</v>
+        <v>0.005467377721001468</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +933,22 @@
         <v>0.472367</v>
       </c>
       <c r="O8">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P8">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q8">
-        <v>0.009560813050444443</v>
+        <v>0.005770277816333333</v>
       </c>
       <c r="R8">
-        <v>0.08604731745399999</v>
+        <v>0.051932500347</v>
       </c>
       <c r="S8">
-        <v>0.0002306138920430648</v>
+        <v>0.0001238920612418014</v>
       </c>
       <c r="T8">
-        <v>0.0002306138920430648</v>
+        <v>0.0001238920612418014</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +956,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -974,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.06072066666666667</v>
+        <v>0.036647</v>
       </c>
       <c r="H9">
-        <v>0.182162</v>
+        <v>0.109941</v>
       </c>
       <c r="I9">
-        <v>0.01020360494289102</v>
+        <v>0.005467377721001466</v>
       </c>
       <c r="J9">
-        <v>0.01020360494289102</v>
+        <v>0.005467377721001468</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N9">
         <v>20.219269</v>
       </c>
       <c r="O9">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P9">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q9">
-        <v>0.4092424977308888</v>
+        <v>0.2469918503476667</v>
       </c>
       <c r="R9">
-        <v>3.683182479577999</v>
+        <v>2.222926653129</v>
       </c>
       <c r="S9">
-        <v>0.009871232152871995</v>
+        <v>0.005303094655664888</v>
       </c>
       <c r="T9">
-        <v>0.009871232152871995</v>
+        <v>0.00530309465566489</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1036,46 +1033,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.06072066666666667</v>
+        <v>0.036647</v>
       </c>
       <c r="H10">
-        <v>0.182162</v>
+        <v>0.109941</v>
       </c>
       <c r="I10">
-        <v>0.01020360494289102</v>
+        <v>0.005467377721001466</v>
       </c>
       <c r="J10">
-        <v>0.01020360494289102</v>
+        <v>0.005467377721001468</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N10">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O10">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P10">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q10">
-        <v>0.004218730238444444</v>
+        <v>0.001881212666666667</v>
       </c>
       <c r="R10">
-        <v>0.037968572146</v>
+        <v>0.016930914</v>
       </c>
       <c r="S10">
-        <v>0.0001017588979759638</v>
+        <v>4.039100409477676E-05</v>
       </c>
       <c r="T10">
-        <v>0.0001017588979759639</v>
+        <v>4.039100409477676E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,10 +1080,10 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -1098,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.8510153333333333</v>
+        <v>1.969698</v>
       </c>
       <c r="H11">
-        <v>2.553046</v>
+        <v>5.909094</v>
       </c>
       <c r="I11">
-        <v>0.1430060758282636</v>
+        <v>0.2938598783611522</v>
       </c>
       <c r="J11">
-        <v>0.1430060758282636</v>
+        <v>0.2938598783611523</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1119,22 @@
         <v>0.472367</v>
       </c>
       <c r="O11">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="P11">
-        <v>0.02260121724956985</v>
+        <v>0.02266023449704293</v>
       </c>
       <c r="Q11">
-        <v>0.1339971866535556</v>
+        <v>0.310140111722</v>
       </c>
       <c r="R11">
-        <v>1.205974679882</v>
+        <v>2.791261005498</v>
       </c>
       <c r="S11">
-        <v>0.003232111387803046</v>
+        <v>0.006658933752936222</v>
       </c>
       <c r="T11">
-        <v>0.003232111387803046</v>
+        <v>0.006658933752936222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1142,10 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
         <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1160,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8510153333333333</v>
+        <v>1.969698</v>
       </c>
       <c r="H12">
-        <v>2.553046</v>
+        <v>5.909094</v>
       </c>
       <c r="I12">
-        <v>0.1430060758282636</v>
+        <v>0.2938598783611522</v>
       </c>
       <c r="J12">
-        <v>0.1430060758282636</v>
+        <v>0.2938598783611523</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.739756333333332</v>
+        <v>6.739756333333333</v>
       </c>
       <c r="N12">
         <v>20.219269</v>
       </c>
       <c r="O12">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="P12">
-        <v>0.9674259448617132</v>
+        <v>0.9699521281096917</v>
       </c>
       <c r="Q12">
-        <v>5.735635982597111</v>
+        <v>13.275284570254</v>
       </c>
       <c r="R12">
-        <v>51.62072384337399</v>
+        <v>119.477561132286</v>
       </c>
       <c r="S12">
-        <v>0.1383477880291238</v>
+        <v>0.2850300143824547</v>
       </c>
       <c r="T12">
-        <v>0.1383477880291238</v>
+        <v>0.2850300143824548</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1204,10 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>23</v>
@@ -1222,232 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8510153333333333</v>
+        <v>1.969698</v>
       </c>
       <c r="H13">
-        <v>2.553046</v>
+        <v>5.909094</v>
       </c>
       <c r="I13">
-        <v>0.1430060758282636</v>
+        <v>0.2938598783611522</v>
       </c>
       <c r="J13">
-        <v>0.1430060758282636</v>
+        <v>0.2938598783611523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06947766666666666</v>
+        <v>0.05133333333333333</v>
       </c>
       <c r="N13">
-        <v>0.208433</v>
+        <v>0.154</v>
       </c>
       <c r="O13">
-        <v>0.009972837888717018</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="P13">
-        <v>0.00997283788871702</v>
+        <v>0.00738763739326543</v>
       </c>
       <c r="Q13">
-        <v>0.05912655965755555</v>
+        <v>0.101111164</v>
       </c>
       <c r="R13">
-        <v>0.532139036918</v>
+        <v>0.9100004759999999</v>
       </c>
       <c r="S13">
-        <v>0.001426176411336846</v>
+        <v>0.002170930225761279</v>
       </c>
       <c r="T13">
-        <v>0.001426176411336847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1351536666666667</v>
-      </c>
-      <c r="H14">
-        <v>0.405461</v>
-      </c>
-      <c r="I14">
-        <v>0.02271145389131398</v>
-      </c>
-      <c r="J14">
-        <v>0.02271145389131398</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.1574556666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.472367</v>
-      </c>
-      <c r="O14">
-        <v>0.02260121724956985</v>
-      </c>
-      <c r="P14">
-        <v>0.02260121724956985</v>
-      </c>
-      <c r="Q14">
-        <v>0.02128071068744444</v>
-      </c>
-      <c r="R14">
-        <v>0.191526396187</v>
-      </c>
-      <c r="S14">
-        <v>0.0005133065034511759</v>
-      </c>
-      <c r="T14">
-        <v>0.0005133065034511759</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1351536666666667</v>
-      </c>
-      <c r="H15">
-        <v>0.405461</v>
-      </c>
-      <c r="I15">
-        <v>0.02271145389131398</v>
-      </c>
-      <c r="J15">
-        <v>0.02271145389131398</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>6.739756333333332</v>
-      </c>
-      <c r="N15">
-        <v>20.219269</v>
-      </c>
-      <c r="O15">
-        <v>0.9674259448617132</v>
-      </c>
-      <c r="P15">
-        <v>0.9674259448617132</v>
-      </c>
-      <c r="Q15">
-        <v>0.9109027808898887</v>
-      </c>
-      <c r="R15">
-        <v>8.198125028008999</v>
-      </c>
-      <c r="S15">
-        <v>0.02197164973998766</v>
-      </c>
-      <c r="T15">
-        <v>0.02197164973998766</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1351536666666667</v>
-      </c>
-      <c r="H16">
-        <v>0.405461</v>
-      </c>
-      <c r="I16">
-        <v>0.02271145389131398</v>
-      </c>
-      <c r="J16">
-        <v>0.02271145389131398</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.06947766666666666</v>
-      </c>
-      <c r="N16">
-        <v>0.208433</v>
-      </c>
-      <c r="O16">
-        <v>0.009972837888717018</v>
-      </c>
-      <c r="P16">
-        <v>0.00997283788871702</v>
-      </c>
-      <c r="Q16">
-        <v>0.009390161401444445</v>
-      </c>
-      <c r="R16">
-        <v>0.084511452613</v>
-      </c>
-      <c r="S16">
-        <v>0.0002264976478751457</v>
-      </c>
-      <c r="T16">
-        <v>0.0002264976478751457</v>
+        <v>0.002170930225761279</v>
       </c>
     </row>
   </sheetData>
